--- a/Database/Data_20150722/Departments.xlsx
+++ b/Database/Data_20150722/Departments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t xml:space="preserve">Code </t>
   </si>
@@ -22,27 +22,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
     <t>FSOFT</t>
   </si>
   <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
     <t>ITS</t>
   </si>
   <si>
@@ -56,9 +41,6 @@
   </si>
   <si>
     <t>SS</t>
-  </si>
-  <si>
-    <t>TI</t>
   </si>
 </sst>
 </file>
@@ -408,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,106 +408,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
